--- a/KOG modell.xlsx
+++ b/KOG modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016D695-B8A8-EE46-BA81-D8CB447934C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86677B7-BB71-E744-9DD3-D18DCB29C5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24520" yWindow="500" windowWidth="26680" windowHeight="26740" activeTab="1" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="2" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Nøkkeltall" sheetId="3" r:id="rId5"/>
     <sheet name="Nedsideberegning" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>KD</t>
+  </si>
+  <si>
+    <t>EBITDA 26e</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="3"/>
@@ -1458,14 +1461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E977A-CC07-0D47-BB92-62793D8A245D}">
   <dimension ref="A1:DW100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
@@ -1599,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -1838,7 +1841,7 @@
       </c>
       <c r="B6" s="33">
         <f>B4*B5</f>
-        <v>227818.794455</v>
+        <v>228698.4037</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="B9" s="34">
         <f>B6-B7+B8</f>
-        <v>214653.794455</v>
+        <v>215533.4037</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="AO27" s="26">
         <f>(AO26-B4)/B4</f>
-        <v>0.41777845072735004</v>
+        <v>0.412325456686091</v>
       </c>
     </row>
     <row r="28" spans="3:127" x14ac:dyDescent="0.25">
@@ -8687,14 +8690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5BDED-A4CC-B64C-BB81-6D3331358016}">
   <dimension ref="A3:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -11222,16 +11225,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDD77C-D909-6341-8714-9D636574A706}">
   <dimension ref="A5:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -11256,7 +11260,7 @@
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F7" s="59" t="s">
         <v>172</v>
@@ -11435,10 +11439,10 @@
   <dimension ref="E5:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
@@ -11463,15 +11467,15 @@
       </c>
       <c r="F6" s="40">
         <f>Modell!$B$9/Modell!AB13</f>
-        <v>25.339990727722384</v>
+        <v>25.443829051050937</v>
       </c>
       <c r="G6" s="40">
         <f>Modell!$B$9/Modell!AC13</f>
-        <v>21.451828968695303</v>
+        <v>21.539734365992992</v>
       </c>
       <c r="H6" s="40">
         <f>Modell!$B$9/Modell!AD13</f>
-        <v>17.334974447661981</v>
+        <v>17.406009780742007</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="92" x14ac:dyDescent="1">
@@ -11480,15 +11484,15 @@
       </c>
       <c r="F7" s="40">
         <f>Modell!$B$4/Modell!AB20</f>
-        <v>34.479648387301324</v>
+        <v>34.61277444285075</v>
       </c>
       <c r="G7" s="40">
         <f>Modell!$B$4/Modell!AC20</f>
-        <v>29.189099871924867</v>
+        <v>29.301799099229598</v>
       </c>
       <c r="H7" s="40">
         <f>Modell!$B$4/Modell!AD20</f>
-        <v>23.587373420162297</v>
+        <v>23.678444360008484</v>
       </c>
     </row>
   </sheetData>
@@ -11501,13 +11505,13 @@
   <dimension ref="A3:DE30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
@@ -11718,7 +11722,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <f>W27</f>
-        <v>-0.28748870517701347</v>
+        <v>-0.29022913323402494</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -13461,7 +13465,7 @@
       </c>
       <c r="W27" s="26">
         <f>(W26-Modell!B4)/Modell!B4</f>
-        <v>-0.28748870517701347</v>
+        <v>-0.29022913323402494</v>
       </c>
     </row>
     <row r="28" spans="3:109" x14ac:dyDescent="0.25">

--- a/KOG modell.xlsx
+++ b/KOG modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86677B7-BB71-E744-9DD3-D18DCB29C5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D09C04-2A63-3547-BFD9-5095380A1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="2" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="24740" windowHeight="26540" activeTab="3" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -687,9 +687,6 @@
     <t>KM</t>
   </si>
   <si>
-    <t>Associates</t>
-  </si>
-  <si>
     <t>Net cash</t>
   </si>
   <si>
@@ -736,6 +733,9 @@
   </si>
   <si>
     <t>EBITDA 26e</t>
+  </si>
+  <si>
+    <t>Patria Net profit</t>
   </si>
 </sst>
 </file>
@@ -8690,7 +8690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB5BDED-A4CC-B64C-BB81-6D3331358016}">
   <dimension ref="A3:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8767,25 +8767,25 @@
         <v>103</v>
       </c>
       <c r="U3" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA3" s="46" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -10116,7 +10116,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -11225,8 +11225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDD77C-D909-6341-8714-9D636574A706}">
   <dimension ref="A5:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -11256,21 +11256,21 @@
         <v>30</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>173</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11330,21 +11330,21 @@
         <v>5908</v>
       </c>
       <c r="F10" s="53">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54">
         <f t="shared" ref="H10:H11" si="0">E10*F10</f>
-        <v>139428.80000000002</v>
+        <v>147700</v>
       </c>
       <c r="I10" s="61">
         <f>H10/Modell!$B$5</f>
-        <v>158.51220390481458</v>
+        <v>167.91547023815104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="54">
         <f>Segmenter!AA30</f>
@@ -11359,36 +11359,39 @@
         <v>1139</v>
       </c>
       <c r="F11" s="53">
-        <v>16.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="54">
         <f t="shared" si="0"/>
-        <v>18907.400000000001</v>
+        <v>19363</v>
       </c>
       <c r="I11" s="61">
         <f>H11/Modell!$B$5</f>
-        <v>21.495226553695446</v>
+        <v>22.013183820049548</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B13" s="60"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="E13" s="53">
+        <v>800</v>
+      </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="61">
-        <v>17</v>
+        <f>(E13*20)/Modell!B5</f>
+        <v>18.189895218757052</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -11404,7 +11407,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="62">
         <f>SUM(B9:B11)</f>
@@ -11425,7 +11428,7 @@
       <c r="H15" s="62"/>
       <c r="I15" s="62">
         <f>SUM(I9:I14)</f>
-        <v>288.42302261727593</v>
+        <v>299.53414143572354</v>
       </c>
     </row>
   </sheetData>

--- a/KOG modell.xlsx
+++ b/KOG modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D09C04-2A63-3547-BFD9-5095380A1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175CA024-3D44-A24B-A8C0-9C5335B1F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="24740" windowHeight="26540" activeTab="3" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="3" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
     <sheet name="Nøkkeltall" sheetId="3" r:id="rId5"/>
     <sheet name="Nedsideberegning" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">SOTP!$A$9:$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SOTP!$I$9:$I$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SOTP!$A$9:$A$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SOTP!$I$9:$I$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SOTP!$A$9:$A$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SOTP!$I$9:$I$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">SOTP!$A$9:$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">SOTP!$I$9:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -193,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -687,9 +697,6 @@
     <t>KM</t>
   </si>
   <si>
-    <t>Net cash</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -729,13 +736,16 @@
     <t>Profit Patria</t>
   </si>
   <si>
-    <t>KD</t>
-  </si>
-  <si>
     <t>EBITDA 26e</t>
   </si>
   <si>
     <t>Patria Net profit</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Kdig</t>
   </si>
 </sst>
 </file>
@@ -829,12 +839,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -917,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -996,6 +1012,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,6 +1030,760 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>SOTP KOG</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>SOTP KOG</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{488D36B3-41B3-FF4D-BB40-2B1CB272CCC6}">
+          <cx:dataPt idx="5">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="7"/>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility connectorLines="0"/>
+            <cx:subtotals>
+              <cx:idx val="7"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>NOK/Aksje</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1600" b="1"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>NOK/Aksje</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagram 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AEF401-9DA8-E144-4EC8-A4C8FA9CC97D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="311150" y="4064000"/>
+              <a:ext cx="8362950" cy="5600700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nb-NO" sz="1100"/>
+                <a:t>Diagrammet er ikke tilgjengelig i din versjon av Excel.
+Hvis du redigerer denne figuren eller lagrer denne arbeidsboken i et annet filformat, blir diagrammet ødelagt for godt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,10 +2235,10 @@
   <dimension ref="A1:DW100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1602,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -1841,7 +2614,7 @@
       </c>
       <c r="B6" s="33">
         <f>B4*B5</f>
-        <v>228698.4037</v>
+        <v>281474.9584</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -2183,7 +2956,7 @@
       </c>
       <c r="B9" s="34">
         <f>B6-B7+B8</f>
-        <v>215533.4037</v>
+        <v>268309.9584</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -4683,7 +5456,7 @@
       </c>
       <c r="AO27" s="26">
         <f>(AO26-B4)/B4</f>
-        <v>0.412325456686091</v>
+        <v>0.14751443355744892</v>
       </c>
     </row>
     <row r="28" spans="3:127" x14ac:dyDescent="0.25">
@@ -8691,10 +9464,10 @@
   <dimension ref="A3:AA44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8767,25 +9540,25 @@
         <v>103</v>
       </c>
       <c r="U3" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>175</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA3" s="46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -10116,7 +10889,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -11223,10 +11996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDD77C-D909-6341-8714-9D636574A706}">
-  <dimension ref="A5:I15"/>
+  <dimension ref="A5:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -11256,21 +12029,21 @@
         <v>30</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11321,7 +12094,7 @@
         <f>Segmenter!AA19</f>
         <v>5062</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="61">
         <v>27.5</v>
       </c>
       <c r="D10" s="53"/>
@@ -11344,7 +12117,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B11" s="54">
         <f>Segmenter!AA30</f>
@@ -11371,9 +12144,20 @@
         <v>22.013183820049548</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="60"/>
       <c r="C13" s="53"/>
@@ -11381,7 +12165,9 @@
       <c r="E13" s="53">
         <v>800</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="53">
+        <v>20</v>
+      </c>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="61">
@@ -11391,7 +12177,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -11399,103 +12185,142 @@
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="54">
+        <f>Modell!B8</f>
+        <v>2600</v>
+      </c>
       <c r="I14" s="61">
-        <f>(Modell!B7-Modell!B8)/Modell!B5</f>
-        <v>14.966873159683537</v>
+        <f>-H14/Modell!B5</f>
+        <v>-2.9558579730480208</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="62">
+      <c r="A15" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54">
+        <f>Modell!B7</f>
+        <v>15765</v>
+      </c>
+      <c r="I15" s="61">
+        <f>H15/Modell!B5</f>
+        <v>17.922731132731556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="62">
         <f>SUM(B9:B11)</f>
         <v>9764</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C16" s="63">
         <v>23.4</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62">
         <f>SUM(E9:E11)</f>
         <v>11530</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F16" s="63">
         <v>19.3</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62">
         <f>SUM(I9:I14)</f>
-        <v>299.53414143572354</v>
+        <v>281.611410302992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267FD8EC-5E9E-AF4D-B55E-0F84D367B0C6}">
-  <dimension ref="E5:H7"/>
+  <dimension ref="E5:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.83203125" customWidth="1"/>
+    <col min="6" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G5" s="39">
-        <v>2026</v>
-      </c>
-      <c r="H5" s="39">
         <v>2027</v>
+      </c>
+      <c r="H5" s="64">
+        <v>2028</v>
       </c>
     </row>
     <row r="6" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E6" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="40">
-        <f>Modell!$B$9/Modell!AB13</f>
-        <v>25.443829051050937</v>
-      </c>
-      <c r="G6" s="40">
-        <f>Modell!$B$9/Modell!AC13</f>
-        <v>21.539734365992992</v>
-      </c>
-      <c r="H6" s="40">
-        <f>Modell!$B$9/Modell!AD13</f>
-        <v>17.406009780742007</v>
+        <v>179</v>
+      </c>
+      <c r="F6" s="65">
+        <f>Modell!$B$9/Modell!AC11</f>
+        <v>23.152592712402079</v>
+      </c>
+      <c r="G6" s="65">
+        <f>Modell!$B$9/Modell!AD11</f>
+        <v>19.169381702864165</v>
+      </c>
+      <c r="H6" s="65">
+        <f>Modell!$B$9/Modell!AE11</f>
+        <v>15.948092008463801</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="40">
+        <f>Modell!$B$9/Modell!AC13</f>
+        <v>26.814058203854319</v>
+      </c>
+      <c r="G7" s="40">
+        <f>Modell!$B$9/Modell!AD13</f>
+        <v>21.668129765543533</v>
+      </c>
+      <c r="H7" s="40">
+        <f>Modell!$B$9/Modell!AE13</f>
+        <v>17.6780528361218</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" ht="92" x14ac:dyDescent="1">
+      <c r="E8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="40">
-        <f>Modell!$B$4/Modell!AB20</f>
-        <v>34.61277444285075</v>
-      </c>
-      <c r="G7" s="40">
+      <c r="F8" s="40">
         <f>Modell!$B$4/Modell!AC20</f>
-        <v>29.301799099229598</v>
-      </c>
-      <c r="H7" s="40">
+        <v>36.063752737513354</v>
+      </c>
+      <c r="G8" s="40">
         <f>Modell!$B$4/Modell!AD20</f>
-        <v>23.678444360008484</v>
+        <v>29.142700750779674</v>
+      </c>
+      <c r="H8" s="40">
+        <f>Modell!$B$4/Modell!AE20</f>
+        <v>23.776219232303749</v>
       </c>
     </row>
   </sheetData>
@@ -11725,7 +12550,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <f>W27</f>
-        <v>-0.29022913323402494</v>
+        <v>-0.42331117075264524</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -13468,7 +14293,7 @@
       </c>
       <c r="W27" s="26">
         <f>(W26-Modell!B4)/Modell!B4</f>
-        <v>-0.29022913323402494</v>
+        <v>-0.42331117075264524</v>
       </c>
     </row>
     <row r="28" spans="3:109" x14ac:dyDescent="0.25">

--- a/KOG modell.xlsx
+++ b/KOG modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175CA024-3D44-A24B-A8C0-9C5335B1F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D4784-564E-2343-9624-F660B0E25461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="3" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
   </bookViews>
@@ -21,14 +21,10 @@
     <sheet name="Nedsideberegning" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">SOTP!$A$9:$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SOTP!$I$9:$I$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SOTP!$A$9:$A$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SOTP!$I$9:$I$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">SOTP!$A$9:$A$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">SOTP!$I$9:$I$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">SOTP!$A$9:$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">SOTP!$I$9:$I$16</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">SOTP!$A$9:$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SOTP!$I$9:$I$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SOTP!$A$9:$A$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SOTP!$I$9:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -203,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -643,9 +639,6 @@
     <t>27.01.25: KOG skal levere JSM missiler til US Air Force</t>
   </si>
   <si>
-    <t xml:space="preserve">Leverer teknolgoi og løsninger for skip og offshoreinstallasjoner. Segmentet uvikler avanserte systemer for navigasjon, automasjon, kontroll og overvåking, samt undervannsteknologi. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Leverandør av forsvars- og romfartsteknologi. Segmentet utvikler og produserer avanserte våpensystemer, luftversystemer, missiler, satelitteknologi og kommuniaskonslønisnger for militære og sicile kunder globalt. </t>
   </si>
   <si>
@@ -745,7 +738,13 @@
     <t>EV/EBITDA</t>
   </si>
   <si>
-    <t>Kdig</t>
+    <t>KDIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverer teknologi og løsninger for skip og offshoreinstallasjoner. Segmentet uvikler avanserte systemer for navigasjon, automasjon, kontroll og overvåking, samt undervannsteknologi. </t>
+  </si>
+  <si>
+    <t>Enterprise value</t>
   </si>
 </sst>
 </file>
@@ -933,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1012,9 +1011,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,10 +1037,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1076,14 +1076,16 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="waterfall" uniqueId="{488D36B3-41B3-FF4D-BB40-2B1CB272CCC6}">
+          <cx:dataPt idx="3"/>
           <cx:dataPt idx="5">
             <cx:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="7"/>
+          <cx:dataPt idx="8"/>
           <cx:dataLabels pos="outEnd">
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
@@ -1091,7 +1093,8 @@
           <cx:layoutPr>
             <cx:visibility connectorLines="0"/>
             <cx:subtotals>
-              <cx:idx val="7"/>
+              <cx:idx val="3"/>
+              <cx:idx val="8"/>
             </cx:subtotals>
           </cx:layoutPr>
         </cx:series>
@@ -1708,15 +1711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>325261</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>725311</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1752,8 +1755,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="311150" y="4064000"/>
-              <a:ext cx="8362950" cy="5600700"/>
+              <a:off x="325261" y="4323644"/>
+              <a:ext cx="8401050" cy="5566834"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2121,7 +2124,7 @@
   <dimension ref="A6:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2147,12 +2150,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2162,12 +2165,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2177,22 +2180,22 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -2238,7 +2241,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="AG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2614,7 +2617,7 @@
       </c>
       <c r="B6" s="33">
         <f>B4*B5</f>
-        <v>281474.9584</v>
+        <v>290271.05085</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -2956,7 +2959,7 @@
       </c>
       <c r="B9" s="34">
         <f>B6-B7+B8</f>
-        <v>268309.9584</v>
+        <v>277106.05085</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
@@ -5456,7 +5459,7 @@
       </c>
       <c r="AO27" s="26">
         <f>(AO26-B4)/B4</f>
-        <v>0.14751443355744892</v>
+        <v>0.11274126890419291</v>
       </c>
     </row>
     <row r="28" spans="3:127" x14ac:dyDescent="0.25">
@@ -6873,7 +6876,7 @@
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="7">
         <v>2648</v>
@@ -9464,10 +9467,10 @@
   <dimension ref="A3:AA44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9540,25 +9543,25 @@
         <v>103</v>
       </c>
       <c r="U3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA3" s="46" t="s">
         <v>174</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA3" s="46" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -9646,7 +9649,7 @@
     <row r="6" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="29">
@@ -10064,10 +10067,10 @@
       <c r="S11" s="3">
         <v>7519</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="7">
         <v>7918</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="7">
         <v>7675</v>
       </c>
       <c r="V11" s="43">
@@ -10078,7 +10081,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -10308,7 +10311,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -10744,7 +10747,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -10889,7 +10892,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -10926,10 +10929,12 @@
       <c r="T24" s="31">
         <v>130</v>
       </c>
-      <c r="U24" s="31"/>
+      <c r="U24" s="31">
+        <v>350</v>
+      </c>
       <c r="V24" s="45">
         <f>SUM(R24:U24)</f>
-        <v>255</v>
+        <v>605</v>
       </c>
       <c r="W24" s="31"/>
       <c r="X24" s="22"/>
@@ -11023,7 +11028,7 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -11371,7 +11376,7 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T31" s="14">
         <v>0.19</v>
@@ -11461,7 +11466,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -11996,10 +12001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDD77C-D909-6341-8714-9D636574A706}">
-  <dimension ref="A5:I16"/>
+  <dimension ref="A5:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12013,40 +12018,40 @@
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -12057,9 +12062,9 @@
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="54">
         <f>Segmenter!AA9</f>
@@ -12086,9 +12091,9 @@
         <v>76.448718999082374</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="54">
         <f>Segmenter!AA19</f>
@@ -12103,21 +12108,21 @@
         <v>5908</v>
       </c>
       <c r="F10" s="53">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54">
-        <f t="shared" ref="H10:H11" si="0">E10*F10</f>
-        <v>147700</v>
+        <f>E10*F10</f>
+        <v>177240</v>
       </c>
       <c r="I10" s="61">
         <f>H10/Modell!$B$5</f>
-        <v>167.91547023815104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201.49856428578124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="54">
         <f>Segmenter!AA30</f>
@@ -12136,67 +12141,74 @@
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H11" si="0">E11*F11</f>
         <v>19363</v>
       </c>
       <c r="I11" s="61">
         <f>H11/Modell!$B$5</f>
         <v>22.013183820049548</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53">
-        <v>800</v>
-      </c>
-      <c r="F13" s="53">
-        <v>20</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="61">
-        <f>(E13*20)/Modell!B5</f>
-        <v>18.189895218757052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="66">
+        <f>SUM(I10:I11)</f>
+        <v>223.5117481058308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="62">
+        <f>SUM(E9:E11)</f>
+        <v>11530</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62">
+        <f>SUM(H9:H11)</f>
+        <v>263848</v>
+      </c>
+      <c r="I12" s="67">
+        <f>SUM(I9:I11)</f>
+        <v>299.96046710491316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="53"/>
+        <v>177</v>
+      </c>
+      <c r="B14" s="60"/>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="E14" s="53">
+        <v>800</v>
+      </c>
+      <c r="F14" s="53">
+        <v>20</v>
+      </c>
       <c r="G14" s="53"/>
-      <c r="H14" s="54">
-        <f>Modell!B8</f>
-        <v>2600</v>
-      </c>
+      <c r="H14" s="53"/>
       <c r="I14" s="61">
-        <f>-H14/Modell!B5</f>
-        <v>-2.9558579730480208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(E14*20)/Modell!B5</f>
+        <v>18.189895218757052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -12205,38 +12217,57 @@
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="54">
+        <f>Modell!B8</f>
+        <v>2600</v>
+      </c>
+      <c r="I15" s="61">
+        <f>-H15/Modell!B5</f>
+        <v>-2.9558579730480208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54">
         <f>Modell!B7</f>
         <v>15765</v>
       </c>
-      <c r="I15" s="61">
-        <f>H15/Modell!B5</f>
+      <c r="I16" s="61">
+        <f>H16/Modell!B5</f>
         <v>17.922731132731556</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="62">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="62">
         <f>SUM(B9:B11)</f>
         <v>9764</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C17" s="63">
         <v>23.4</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62">
         <f>SUM(E9:E11)</f>
         <v>11530</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F17" s="63">
         <v>19.3</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62">
-        <f>SUM(I9:I14)</f>
-        <v>281.611410302992</v>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62">
+        <f>SUM(I12:I16)</f>
+        <v>333.11723548335374</v>
       </c>
     </row>
   </sheetData>
@@ -12251,7 +12282,7 @@
   <dimension ref="E5:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12268,25 +12299,25 @@
       <c r="G5" s="39">
         <v>2027</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="39">
         <v>2028</v>
       </c>
     </row>
     <row r="6" spans="5:8" ht="92" x14ac:dyDescent="1">
       <c r="E6" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="65">
+        <v>178</v>
+      </c>
+      <c r="F6" s="64">
         <f>Modell!$B$9/Modell!AC11</f>
-        <v>23.152592712402079</v>
-      </c>
-      <c r="G6" s="65">
+        <v>23.911611673792539</v>
+      </c>
+      <c r="G6" s="64">
         <f>Modell!$B$9/Modell!AD11</f>
-        <v>19.169381702864165</v>
-      </c>
-      <c r="H6" s="65">
+        <v>19.797817764921753</v>
+      </c>
+      <c r="H6" s="64">
         <f>Modell!$B$9/Modell!AE11</f>
-        <v>15.948092008463801</v>
+        <v>16.470923484954959</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="92" x14ac:dyDescent="1">
@@ -12295,15 +12326,15 @@
       </c>
       <c r="F7" s="40">
         <f>Modell!$B$9/Modell!AC13</f>
-        <v>26.814058203854319</v>
+        <v>27.693112176831207</v>
       </c>
       <c r="G7" s="40">
         <f>Modell!$B$9/Modell!AD13</f>
-        <v>21.668129765543533</v>
+        <v>22.378483096343789</v>
       </c>
       <c r="H7" s="40">
         <f>Modell!$B$9/Modell!AE13</f>
-        <v>17.6780528361218</v>
+        <v>18.257598179909202</v>
       </c>
     </row>
     <row r="8" spans="5:8" ht="92" x14ac:dyDescent="1">
@@ -12312,15 +12343,15 @@
       </c>
       <c r="F8" s="40">
         <f>Modell!$B$4/Modell!AC20</f>
-        <v>36.063752737513354</v>
+        <v>37.190745010560647</v>
       </c>
       <c r="G8" s="40">
         <f>Modell!$B$4/Modell!AD20</f>
-        <v>29.142700750779674</v>
+        <v>30.05341014924154</v>
       </c>
       <c r="H8" s="40">
         <f>Modell!$B$4/Modell!AE20</f>
-        <v>23.776219232303749</v>
+        <v>24.519226083313239</v>
       </c>
     </row>
   </sheetData>
@@ -12352,7 +12383,7 @@
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>136</v>
@@ -12408,7 +12439,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -12550,7 +12581,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <f>W27</f>
-        <v>-0.42331117075264524</v>
+        <v>-0.44078658982074692</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -14293,7 +14324,7 @@
       </c>
       <c r="W27" s="26">
         <f>(W26-Modell!B4)/Modell!B4</f>
-        <v>-0.42331117075264524</v>
+        <v>-0.44078658982074692</v>
       </c>
     </row>
     <row r="28" spans="3:109" x14ac:dyDescent="0.25">

--- a/KOG modell.xlsx
+++ b/KOG modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D4784-564E-2343-9624-F660B0E25461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FB7D6-D41A-774D-A611-B2D5A55EC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="3" xr2:uid="{63E64FC1-3DBC-8948-A6F7-2B4A72814B1F}"/>
   </bookViews>
@@ -852,7 +852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -928,11 +928,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1015,6 +1028,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,6 +1091,7 @@
       <cx:plotAreaRegion>
         <cx:series layoutId="waterfall" uniqueId="{488D36B3-41B3-FF4D-BB40-2B1CB272CCC6}">
           <cx:dataPt idx="3"/>
+          <cx:dataPt idx="4"/>
           <cx:dataPt idx="5">
             <cx:spPr>
               <a:solidFill>
@@ -1093,7 +1108,7 @@
           <cx:layoutPr>
             <cx:visibility connectorLines="0"/>
             <cx:subtotals>
-              <cx:idx val="3"/>
+              <cx:idx val="4"/>
               <cx:idx val="8"/>
             </cx:subtotals>
           </cx:layoutPr>
@@ -1755,8 +1770,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="325261" y="4323644"/>
-              <a:ext cx="8401050" cy="5566834"/>
+              <a:off x="325261" y="4349044"/>
+              <a:ext cx="8362950" cy="5599290"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12003,8 +12018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDD77C-D909-6341-8714-9D636574A706}">
   <dimension ref="A5:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12141,7 +12156,7 @@
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="54">
-        <f t="shared" ref="H11" si="0">E11*F11</f>
+        <f>E11*F11</f>
         <v>19363</v>
       </c>
       <c r="I11" s="61">
@@ -12154,57 +12169,60 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53">
+        <v>800</v>
+      </c>
+      <c r="F12" s="53">
+        <v>20</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54">
+        <f>E12*F12</f>
+        <v>16000</v>
+      </c>
+      <c r="I12" s="61">
+        <f>(E12*F12)/Modell!B5</f>
+        <v>18.189895218757052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="62">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="62">
         <f>SUM(E9:E11)</f>
         <v>11530</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62">
         <f>SUM(H9:H11)</f>
         <v>263848</v>
       </c>
-      <c r="I12" s="67">
-        <f>SUM(I9:I11)</f>
-        <v>299.96046710491316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="67">
+        <f>SUM(I9:I12)</f>
+        <v>318.15036232367021</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53">
-        <v>800</v>
-      </c>
-      <c r="F14" s="53">
-        <v>20</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="61">
-        <f>(E14*20)/Modell!B5</f>
-        <v>18.189895218757052</v>
-      </c>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
@@ -12266,7 +12284,7 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62">
-        <f>SUM(I12:I16)</f>
+        <f>SUM(I13:I16)</f>
         <v>333.11723548335374</v>
       </c>
     </row>
